--- a/MembershipRanking/src/main/resources/TestCasesBoundary.xlsx
+++ b/MembershipRanking/src/main/resources/TestCasesBoundary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{18D98B1D-2305-47E4-971C-9DDF44A82310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7C8680AA-8637-46F0-8F71-BFAB3764788F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{1D09411D-7106-40F4-A985-19C94DCC51B3}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="10">
   <si>
     <t>Spending</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Silver</t>
-  </si>
-  <si>
-    <t>Gold</t>
   </si>
   <si>
     <t>PASS</t>
@@ -60,6 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -447,7 +445,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:F22"/>
+      <selection activeCell="E2" sqref="E2:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -477,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2">
         <v>500</v>
@@ -485,11 +483,11 @@
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
+      <c r="E2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -497,7 +495,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>500</v>
@@ -505,11 +503,11 @@
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
+      <c r="E3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -517,19 +515,19 @@
         <v>50000</v>
       </c>
       <c r="B4" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>500</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
+      <c r="F4" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -537,19 +535,19 @@
         <v>99999</v>
       </c>
       <c r="B5" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>500</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
+      <c r="F5" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -557,19 +555,19 @@
         <v>100000</v>
       </c>
       <c r="B6" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2">
         <v>500</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="F6" t="s">
-        <v>10</v>
+      <c r="F6" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -585,11 +583,11 @@
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
+      <c r="E7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -605,11 +603,11 @@
       <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
+      <c r="E8" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -617,7 +615,7 @@
         <v>50000</v>
       </c>
       <c r="B9" s="2">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2">
         <v>500</v>
@@ -625,11 +623,11 @@
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="F9" t="s">
-        <v>10</v>
+      <c r="F9" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -637,19 +635,19 @@
         <v>50000</v>
       </c>
       <c r="B10" s="2">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2">
+        <v>500</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C10" s="2">
-        <v>500</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
+      <c r="F10" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -657,7 +655,7 @@
         <v>50000</v>
       </c>
       <c r="B11" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -665,11 +663,11 @@
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
+      <c r="E11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -677,7 +675,7 @@
         <v>50000</v>
       </c>
       <c r="B12" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -685,11 +683,11 @@
       <c r="D12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
+      <c r="E12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -697,19 +695,19 @@
         <v>50000</v>
       </c>
       <c r="B13" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
         <v>999</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="F13" t="s">
-        <v>10</v>
+      <c r="F13" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -717,19 +715,19 @@
         <v>50000</v>
       </c>
       <c r="B14" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
         <v>1000</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="F14" t="s">
-        <v>10</v>
+      <c r="F14" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -744,37 +742,37 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
